--- a/data/brand_diff.xlsx
+++ b/data/brand_diff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,713 +436,1733 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Brand</t>
+          <t>peiyi與cosmetic_momoko的差集</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>peiyi與check_fresh的差集</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>peiyi與cosmetic_calculator的差集</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>clarisonic</t>
+          <t>smith's rosebud salve</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>smith's rosebud salve</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>smith's rosebud salve</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>moroccan</t>
+          <t>blackmores</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>blackmores</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>blackmores</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>labeau</t>
+          <t>axis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>axis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>axis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>philips</t>
+          <t>dariya</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dariya</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dariya</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ferre</t>
+          <t>repetto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ferragamo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>soga</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>thomson</t>
+          <t>soga</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>soga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cabotine</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mercedes benz</t>
+          <t>cabotine</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cabotine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>silwa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zojirushi</t>
+          <t>silwa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>silwa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>alyssa ashley</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dkny</t>
+          <t>alyssa ashley</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>crabtree &amp; evelyn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mcm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>coach</t>
+          <t>trussardi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>wedgwood</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>etude house</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>polo lauren</t>
+          <t>mcm</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nuxe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wedgwood</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>korloff</t>
+          <t>valentino</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>armani</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>armani</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dazzling</t>
+          <t>cacharel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>admj</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>admj</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>frederic malle</t>
+          <t>etude house</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>faconnable</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rochas</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aigner</t>
+          <t>wedgwood</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>electrolux</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vince camuto</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tatung</t>
+          <t>armani</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>le couvent</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>electrolux</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>evian</t>
+          <t>chloe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>boss</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>le couvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>victorinox</t>
+          <t>matrix</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>morgan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>boss</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a.banderas</t>
+          <t>admj</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>kao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>morgan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>admj</t>
+          <t>rochas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tescom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tescom</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>samourai</t>
+          <t>vince camuto</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>juicy.c</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hollister</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>le labo</t>
+          <t>faconnable</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>emporio armani</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>juicy.c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fujitek</t>
+          <t>electrolux</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tatung</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>miu miu</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>elie saab</t>
+          <t>le couvent</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l'occitane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tatung</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>armani</t>
+          <t>boss</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>maison margiela</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>emporio armani</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dates</t>
+          <t>paul smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l'orèal</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>l'occitane</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>benetton</t>
+          <t>morgan</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>narciso</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>le labo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">yves saint laurent </t>
+          <t>tescom</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>labeau</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>maison margiela</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>princess</t>
+          <t>hollister</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>zojirushi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>l'orèal</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>byredo</t>
+          <t>juicy.c</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>neoflam</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>miller harris</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>juicy.c</t>
+          <t>miu miu</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hellolulu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>yardley</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>miu miu</t>
+          <t>tatung</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>braun</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>narciso</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>gaultier</t>
+          <t>emporio armani</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>nikko</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>labeau</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>boss</t>
+          <t>le labo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>niederegge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>zojirushi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>l'orèal</t>
+          <t>cartier</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>alaia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>neoflam</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>peter roth</t>
+          <t>viktor &amp; rolf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dolce &amp; gabbana</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hellolulu</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>kolin</t>
+          <t>maison margiela</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>peter roth</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>furla</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>clathas</t>
+          <t>l'orèal</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cosme decorte</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>braun</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sodastream</t>
+          <t>miller harris</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>hermes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>nikko</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>narciso</t>
+          <t>yardley</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>porsche</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>niederegge</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>balea</t>
+          <t>narciso</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>koji</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>alaia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>labeau</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>peter roth</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>yardley</t>
+          <t>zojirushi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>atelier cologne</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>porsche</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>avene</t>
+          <t>neoflam</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mng</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>koji</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gres</t>
+          <t>hellolulu</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cafe-cafe</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ford</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>her haircare rituals</t>
+          <t>furla</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dunhill</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>atelier cologne</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>alyssa ashley</t>
+          <t>braun</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>allez voyager</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>mng</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kiss me</t>
+          <t>nikko</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mercedes benz</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cafe-cafe</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>furla</t>
+          <t>aerin</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>panasonic</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>allez voyager</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>neoflam</t>
+          <t>niederegge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sana</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>mercedes benz</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lole's</t>
+          <t>alaia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>her haircare rituals</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>panasonic</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pupa</t>
+          <t>dolce &amp; gabbana</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>m.a.c</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>sana</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>louis vuitton</t>
+          <t>peter roth</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>balea</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>her haircare rituals</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mugler</t>
+          <t>cosme decorte</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>fujitek</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>m.a.c</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jaguar</t>
+          <t>parfums de marly</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>philo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>tiffany &amp; co.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>palty</t>
+          <t>issey miyake</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>princess</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>lamborghini</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nikko</t>
+          <t>missoni</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>doshisha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>balea</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dariya</t>
+          <t>paris hilton</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tomford</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>fujitek</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>atelier cologne</t>
+          <t>hermes</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bairan</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hourglass</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>recolte</t>
+          <t>porsche</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>irobot</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>philo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>le couvent</t>
+          <t>koji</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>lolita</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>louis vuitton</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>panasonic</t>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sodastream</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bentley</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>porsche</t>
+          <t>atelier cologne</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>hitachi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>princess</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>koji</t>
+          <t>mng</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kose</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>doshisha</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ferrari</t>
+          <t>cafe-cafe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>floral street</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>tomford</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tomford</t>
+          <t>yves rocher</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>women's secret</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>coach</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>braun</t>
+          <t>dunhill</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>kenneth colecol</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>bairan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ford</t>
+          <t>allez voyager</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>mont blanc</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>irobot</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>naris</t>
+          <t>mercedes benz</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gres</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>lolita</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mng</t>
+          <t>panasonic</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>avene</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>diptyque</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>electrolux</t>
+          <t>sana</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lancome</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>sodastream</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mcm</t>
+          <t>her haircare rituals</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>estee lauder</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>hitachi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lamborghini</t>
+          <t>jimmy choo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>naris</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ipsa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>eminent</t>
+          <t>m.a.c</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2s candle</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>floral street</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rochas</t>
+          <t>tiffany &amp; co.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ferrari</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>soga</t>
+          <t>lamborghini</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>philips</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>women's secret</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vince camuto</t>
+          <t>lalique</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>malin + goetz</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>kenneth colecol</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kenneth colecol</t>
+          <t>kenneth cole</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>clarisonic</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>gres</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>miller harris</t>
+          <t>balea</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>samourai</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>avene</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hollister</t>
+          <t>fujitek</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>frederic malle</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>agent provocateur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ricebean</t>
+          <t>hourglass</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sabon</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>naris</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>one amadana</t>
+          <t>philo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>aigner</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2s candle</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>women's secret</t>
+          <t>louis vuitton</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>recolte</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sony</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>malin + goetz</t>
+          <t>bentley</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>thomson</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>philips</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>l'occitane</t>
+          <t>princess</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>lole's</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaguar</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sabon</t>
+          <t>doshisha</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>one amadana</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>malin + goetz</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>silwa</t>
+          <t>tomford</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a.banderas</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>clarisonic</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>matric</t>
+          <t>coach</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>whirlpool</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>byredo</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>wedgwood</t>
+          <t>bairan</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>sampo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>elie saab</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2s candle</t>
+          <t>irobot</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>nest</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>samourai</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ermenegildo zegna</t>
+          <t>lolita</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>jovan</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>abercrombie &amp; fitch</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>agent provocateur</t>
+          <t>diptyque</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>sk2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>frederic malle</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>philo</t>
+          <t>sodastream</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ferre</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sabon</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>hourglass</t>
+          <t>hitachi</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>benetton</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>aigner</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bairan</t>
+          <t>michael kors</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>polo lauren</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>recolte</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>axis</t>
+          <t>penhaligon's</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>happycall</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>thomson</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>maison margiela</t>
+          <t>dsquared2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>mugler</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ermenegildo zegna</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sk2</t>
+          <t>kose</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>palty</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>lole's</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>john varvatos</t>
+          <t>floral street</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>kiss me</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>one amadana</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bentley</t>
+          <t>ferrari</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>moroccan</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>a.banderas</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>women's secret</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>clathas</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>whirlpool</t>
         </is>
       </c>
@@ -1150,198 +2170,886 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>cabotine</t>
+          <t>kenneth colecol</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>kolin</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>victorinox</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>happycall</t>
+          <t>mont blanc</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>matric</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sampo</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ipsa</t>
+          <t>gres</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yves saint laurent </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>nest</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>etude house</t>
+          <t>avene</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bvlgari</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sk2</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lolita</t>
+          <t>lancome</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>dates</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ferre</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>abercrombie &amp; fitch</t>
+          <t>moschino</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>evian</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>benetton</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>alaia</t>
+          <t>guess</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ricebean</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>polo lauren</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>m.a.c</t>
+          <t>tory burch</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>happycall</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hitachi</t>
+          <t>estee lauder</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>dazzling</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>mugler</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sampo</t>
+          <t>creed</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>airmate</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>palty</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>airmate</t>
+          <t>agent provocateur</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>gaultier</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>kiss me</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>niederegge</t>
+          <t>azzaro</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>imarflex</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>korloff</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>cafe-cafe</t>
+          <t>naris</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>jesus del pozo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>moroccan</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>2s candle</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>clathas</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>tescom</t>
+          <t>sony</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>kolin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>floral street</t>
+          <t>philips</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>matric</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>tiffany &amp; co.</t>
+          <t>jaguar</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yves saint laurent </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>emporio armani</t>
+          <t>paco rabanne</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>dates</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>blackmores</t>
+          <t>malin + goetz</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>evian</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>diptyque</t>
+          <t>versace</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ricebean</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>smith's rosebud salve</t>
+          <t>clarisonic</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>eminent</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>doshisha</t>
+          <t>byredo</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>dazzling</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>hellolulu</t>
+          <t>elie saab</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>airmate</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>imarflex</t>
+          <t>samourai</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>gaultier</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>allez voyager</t>
+          <t>abercrombie &amp; fitch</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>john varvatos</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>irobot</t>
+          <t>frederic malle</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>imarflex</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>nest</t>
+          <t>boucheron</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>dkny</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>morgan</t>
-        </is>
-      </c>
+          <t>sabon</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>pupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>aigner</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>recolte</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>thomson</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ermenegildo zegna</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>lole's</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>one amadana</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>a.banderas</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>whirlpool</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>victorinox</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sampo</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>victoria's secret</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>carolina herrera</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>nest</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>jovan</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>sk2</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>escada</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ferre</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>benetton</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>christian dior</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>guy laroche</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>polo lauren</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>happycall</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mugler</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>palty</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>nina ricci</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>kiss me</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>korloff</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>moroccan</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>clathas</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>kolin</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>sean john</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>matric</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yves saint laurent </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>dates</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>evian</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ricebean</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>masaki matsushima</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>helena rubinstein</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>dazzling</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>blumarine</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>airmate</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>gaultier</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>nikos</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>tous</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>marc jacobs</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>john varvatos</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>tommy hilfiger</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>juliette has a gun</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>imarflex</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>pupa</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>jesus del pozo</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
